--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -890,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -926,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,6 +1091,325 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1 9 e</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1 7 pi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1 6 re</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1 6 e</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0 6 e</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,16 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>Adversário</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TESTE REAL</t>
         </is>
       </c>
     </row>
@@ -725,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,6 +769,16 @@
           <t>away_sets</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>finished_at</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -778,6 +798,33 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>OPEN</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -790,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,6 +894,24 @@
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -859,7 +924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,6 +1014,70 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>LINHA</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1 4 l</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,25 +463,9 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Adversário</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TESTE REAL</t>
         </is>
       </c>
     </row>
@@ -735,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,30 +735,40 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>home_team_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>away_team_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>home_sets</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>away_sets</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>finished_at</t>
         </is>
@@ -784,47 +778,30 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-09-07</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>OPEN</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -837,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -888,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -900,18 +877,38 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -924,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,60 +1016,3330 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PONTA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0 ponteira meio</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NOS</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>adv ataque fora</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>adv ataque fora</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>LINHA</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>PONTO</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>NOS</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PONTA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1 ponteira saque</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1 ponta erro ataque</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CENTRAL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1 central 5 meio</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PONTA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DIAGONAL</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1 ponteira 9 diagonal</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CENTRAL</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1 ataque 9 meio</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PONTA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1 ponteira 9 ataque</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CENTRAL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1 central 8 meio</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>OPPOSTA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1 oposta 11 meio</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>OPPOSTA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>11</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1 oposta 11 meio</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CENTRAL</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1 erro 4 meio</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1 erro 7 recepcao</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CENTRAL</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1 erro meio</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1 erro ataque</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>9</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>8</v>
+      </c>
+      <c r="L19" t="n">
+        <v>10</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>11</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>11</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>12</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>12</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1 9 ataque</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>11</v>
+      </c>
+      <c r="L25" t="n">
+        <v>13</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1 erro</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>12</v>
+      </c>
+      <c r="L26" t="n">
+        <v>13</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>13</v>
+      </c>
+      <c r="L27" t="n">
+        <v>13</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1 ponto1 ponto</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>14</v>
+      </c>
+      <c r="L28" t="n">
+        <v>13</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>15</v>
+      </c>
+      <c r="L29" t="n">
+        <v>13</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>16</v>
+      </c>
+      <c r="L30" t="n">
+        <v>13</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>17</v>
+      </c>
+      <c r="L31" t="n">
+        <v>13</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>18</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1 ponto1 ponto</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>19</v>
+      </c>
+      <c r="L33" t="n">
+        <v>13</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>20</v>
+      </c>
+      <c r="L34" t="n">
+        <v>13</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>21</v>
+      </c>
+      <c r="L35" t="n">
+        <v>13</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1 ponto</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>22</v>
+      </c>
+      <c r="L36" t="n">
+        <v>13</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1 ponto 5</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>22</v>
+      </c>
+      <c r="L37" t="n">
+        <v>14</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0 ponto0 ponto0 ponto0 ponto0 ponto0 ponto0 ponto0 ponto0 ponto</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>22</v>
+      </c>
+      <c r="L38" t="n">
+        <v>15</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>22</v>
+      </c>
+      <c r="L39" t="n">
+        <v>16</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>22</v>
+      </c>
+      <c r="L40" t="n">
+        <v>17</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>22</v>
+      </c>
+      <c r="L41" t="n">
+        <v>18</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>22</v>
+      </c>
+      <c r="L42" t="n">
+        <v>19</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>20</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>22</v>
+      </c>
+      <c r="L44" t="n">
+        <v>21</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>22</v>
+      </c>
+      <c r="L45" t="n">
+        <v>22</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>22</v>
+      </c>
+      <c r="L46" t="n">
+        <v>23</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>22</v>
+      </c>
+      <c r="L47" t="n">
+        <v>24</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>22</v>
+      </c>
+      <c r="L48" t="n">
+        <v>25</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0 ponto</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>9</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>DIAGONAL</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1 4 l</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1 9 ponto diagonal</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>9</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1 9 ponto</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PONTA</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>9</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1 ponteira 9 meio</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CENTRAL</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>7</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1 7 central</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CENTRAL</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>7</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1 7 central meio</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0 bloqueio</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>PONTO_ADV</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0 ponta</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>7</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1 erro 7 recepcao</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1 6 erro bloqeui</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1 3 erro recepcao</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1 ponto bloqueio</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>12</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1 3 d</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>13</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>8</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1 3 d</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>14</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>9</v>
+      </c>
+      <c r="L62" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1 3 d</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>15</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>10</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1 3 d</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="n">
+        <v>9</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1 9 m</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>11</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>DIAGONAL</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1 11 d</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
         <is>
           <t>FRENTE</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>FRENTE</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>FRENTE</t>
         </is>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,6 +4345,134 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1 3 m</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>4</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1 3 m</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4473,6 +4473,70 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>LINHA</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1 3 l</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4537,6 +4537,70 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>6</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1 4 m</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4601,6 +4601,70 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="n">
+        <v>4</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>7</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>1 4 m</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4665,6 +4665,70 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>8</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>LINHA</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>8</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1 2 l</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4729,6 +4729,70 @@
         </is>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>9</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1 4 m</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4793,6 +4793,70 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="n">
+        <v>4</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>10</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>1 4 m</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4857,6 +4857,70 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>11</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>LINHA</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>11</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1 2 l</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4921,6 +4921,70 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>12</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>12</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1 3 m</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4985,6 +4985,198 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>13</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>13</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" t="n">
+        <v>14</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>14</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>15</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>15</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5177,6 +5177,134 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>16</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>LINHA</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>16</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1 3 l</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>17</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>17</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5305,6 +5305,326 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>18</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>18</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>19</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>5</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>19</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>20</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>21</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>21</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>22</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>22</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5625,6 +5625,70 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>23</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>23</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5689,6 +5689,70 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>24</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>24</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -906,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5753,6 +5753,142 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>25</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>5</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>24</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0 5 m</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>26</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>24</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>0 5 seg</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -906,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -921,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5889,6 +5889,138 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>27</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>24</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0  pi</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>28</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>24</v>
+      </c>
+      <c r="L91" t="n">
+        <v>4</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0  re</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,16 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>Adversário</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>teste</t>
         </is>
       </c>
     </row>
@@ -719,7 +729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +783,16 @@
           <t>finished_at</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>is_closed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>closed_at</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -790,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -798,10 +818,47 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OPEN</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-09-23 21:57:08</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-23T21:57:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -814,7 +871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,12 +960,92 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -921,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6021,6 +6158,6100 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>6</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>24</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0 6 re</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>30</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>24</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0  re</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>31</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>24</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0  re</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>32</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>25</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1  b</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="n">
+        <v>8</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="n">
+        <v>8</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>3</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>7</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>4</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>1 7 pi</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>5</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>6</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>6</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>7</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="n">
+        <v>6</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>8</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4</v>
+      </c>
+      <c r="D104" t="n">
+        <v>9</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>9</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>7</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>10</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>1 7 seg</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>11</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>8</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>11</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>1 8 pi</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="n">
+        <v>11</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>12</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>1 11 b</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>13</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="n">
+        <v>6</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>13</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="n">
+        <v>14</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="n">
+        <v>7</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>14</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>1 7 pi</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>15</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
+      <c r="D111" t="n">
+        <v>16</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="n">
+        <v>9</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>16</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>1 9 b</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>17</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>9</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>17</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>1 9 sa</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>18</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>8</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>18</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>19</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>5</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>19</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>20</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="n">
+        <v>9</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>20</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>1 9 b</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>21</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="n">
+        <v>5</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>21</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>22</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>9</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>22</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>1 9 b</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>23</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="n">
+        <v>5</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>23</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>4</v>
+      </c>
+      <c r="D119" t="n">
+        <v>24</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>5</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>23</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>0 5 re</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>25</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>5</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>23</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>0 5 sa</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>4</v>
+      </c>
+      <c r="D121" t="n">
+        <v>26</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>23</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>0  sa</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>27</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>23</v>
+      </c>
+      <c r="L122" t="n">
+        <v>4</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>0  sa</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>28</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="n">
+        <v>5</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>24</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>29</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="n">
+        <v>11</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>25</v>
+      </c>
+      <c r="L124" t="n">
+        <v>4</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>1 11 b</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="n">
+        <v>6</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="n">
+        <v>8</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>2</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="n">
+        <v>11</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>3</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>1 11 sa</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="n">
+        <v>4</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>4</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="n">
+        <v>4</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>5</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="n">
+        <v>9</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>6</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>1 9 b</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="n">
+        <v>8</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>7</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>8</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="n">
+        <v>8</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>8</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>1 8 pi</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="n">
+        <v>14</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>9</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>1 14 re</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>10</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="n">
+        <v>4</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>10</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="n">
+        <v>5</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>11</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="n">
+        <v>8</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>12</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>13</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>13</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>14</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="n">
+        <v>8</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>14</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="n">
+        <v>5</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="n">
+        <v>7</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="n">
+        <v>5</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>2</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>11</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>3</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>1 11 sa</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>11</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>4</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>1 11 sa</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>9</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>5</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>1 9 sa</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="n">
+        <v>8</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>6</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>7</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>8</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>7</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="n">
+        <v>8</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>8</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="n">
+        <v>14</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>9</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>1 14 sa</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>10</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="n">
+        <v>8</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>10</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="n">
+        <v>11</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>11</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>1 11 b</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>12</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>1  seg</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>13</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="n">
+        <v>5</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>13</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>14</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="n">
+        <v>9</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>14</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>1 9 b</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="n">
+        <v>9</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>15</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>1 9 b</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="n">
+        <v>8</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>16</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>17</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="n">
+        <v>4</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>17</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>18</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>LINHA</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>18</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>1 2 l</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>19</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="n">
+        <v>6</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>19</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>20</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="n">
+        <v>7</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>20</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>21</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="n">
+        <v>5</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>21</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>22</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="n">
+        <v>5</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>22</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>23</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>22</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>0  sa</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>24</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="n">
+        <v>8</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>23</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="n">
+        <v>25</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="n">
+        <v>5</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>24</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
+        <v>26</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>25</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>1  b</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>1  seg</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="n">
+        <v>7</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>3</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="n">
+        <v>9</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>3</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>1 9 b</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="n">
+        <v>8</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>4</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="n">
+        <v>5</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>5</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="n">
+        <v>4</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>6</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>7</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="n">
+        <v>7</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>7</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>8</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="n">
+        <v>7</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>8</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>7</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>9</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>10</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>7</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>10</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>11</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>7</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>11</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>4</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>12</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>13</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>5</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>13</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>14</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>8</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>14</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>4</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>15</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>1 4 seg</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>16</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>8</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>16</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>1 8 b</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>17</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>7</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>17</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>18</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>6</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>18</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>19</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>5</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>19</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>20</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>7</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>20</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>1 7 pi</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>21</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>6</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>21</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -1112,7 +1112,7 @@
           <t>2025-09-24 09:30:45</t>
         </is>
       </c>
-      <c r="J10" t="b">
+      <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P213"/>
+  <dimension ref="A1:P214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14739,6 +14739,70 @@
         </is>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>215</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="n">
+        <v>8</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -1937,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1975,7 +1975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P248"/>
+  <dimension ref="A1:P251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17557,6 +17557,198 @@
         </is>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>258</v>
+      </c>
+      <c r="B249" t="n">
+        <v>11</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>46</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="n">
+        <v>4</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>26</v>
+      </c>
+      <c r="L249" t="n">
+        <v>20</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>259</v>
+      </c>
+      <c r="B250" t="n">
+        <v>11</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>47</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="n">
+        <v>6</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>27</v>
+      </c>
+      <c r="L250" t="n">
+        <v>20</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>260</v>
+      </c>
+      <c r="B251" t="n">
+        <v>11</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>48</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="n">
+        <v>6</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>27</v>
+      </c>
+      <c r="L251" t="n">
+        <v>21</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>1 6 pi e</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,16 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>Jogo camp 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adversário</t>
         </is>
       </c>
     </row>
@@ -759,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,10 +1243,24 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-30 12:34:30</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-09-30T12:34:30</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>campeonato</t>
@@ -1252,6 +1276,50 @@
           <t>Classificatório</t>
         </is>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-30 12:34:15</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-09-30T12:34:15</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>amistoso</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1264,7 +1332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1919,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
@@ -1963,6 +2031,24 @@
         <v>0</v>
       </c>
       <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1975,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P251"/>
+  <dimension ref="A1:P256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17749,6 +17835,324 @@
         </is>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>261</v>
+      </c>
+      <c r="B252" t="n">
+        <v>10</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>8</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>5</v>
+      </c>
+      <c r="L252" t="n">
+        <v>3</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>1  m</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>262</v>
+      </c>
+      <c r="B253" t="n">
+        <v>10</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>9</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="n">
+        <v>3</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>6</v>
+      </c>
+      <c r="L253" t="n">
+        <v>3</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>1 3 m</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>263</v>
+      </c>
+      <c r="B254" t="n">
+        <v>10</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>10</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="n">
+        <v>3</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>6</v>
+      </c>
+      <c r="L254" t="n">
+        <v>4</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>1 3 m e</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>264</v>
+      </c>
+      <c r="B255" t="n">
+        <v>10</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>11</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="n">
+        <v>3</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>7</v>
+      </c>
+      <c r="L255" t="n">
+        <v>4</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>1 3 m</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>265</v>
+      </c>
+      <c r="B256" t="n">
+        <v>10</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>12</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="n">
+        <v>3</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>MEIO</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>7</v>
+      </c>
+      <c r="L256" t="n">
+        <v>5</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>1 3 m e</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -1987,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
@@ -2061,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P256"/>
+  <dimension ref="A1:P266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18153,6 +18153,646 @@
         </is>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>266</v>
+      </c>
+      <c r="B257" t="n">
+        <v>10</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>13</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="n">
+        <v>6</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>8</v>
+      </c>
+      <c r="L257" t="n">
+        <v>5</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>267</v>
+      </c>
+      <c r="B258" t="n">
+        <v>10</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>14</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="n">
+        <v>6</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>8</v>
+      </c>
+      <c r="L258" t="n">
+        <v>6</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>1 6 pi e</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>268</v>
+      </c>
+      <c r="B259" t="n">
+        <v>10</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>15</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="n">
+        <v>6</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>8</v>
+      </c>
+      <c r="L259" t="n">
+        <v>7</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>1 6 pi e</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>269</v>
+      </c>
+      <c r="B260" t="n">
+        <v>10</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>16</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="n">
+        <v>6</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>9</v>
+      </c>
+      <c r="L260" t="n">
+        <v>7</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>270</v>
+      </c>
+      <c r="B261" t="n">
+        <v>10</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>17</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="n">
+        <v>6</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>9</v>
+      </c>
+      <c r="L261" t="n">
+        <v>8</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>1 6 pi e</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>271</v>
+      </c>
+      <c r="B262" t="n">
+        <v>10</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>18</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="n">
+        <v>7</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>10</v>
+      </c>
+      <c r="L262" t="n">
+        <v>8</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>272</v>
+      </c>
+      <c r="B263" t="n">
+        <v>10</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="n">
+        <v>19</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="n">
+        <v>7</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>10</v>
+      </c>
+      <c r="L263" t="n">
+        <v>9</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>273</v>
+      </c>
+      <c r="B264" t="n">
+        <v>10</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="n">
+        <v>20</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="n">
+        <v>7</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>11</v>
+      </c>
+      <c r="L264" t="n">
+        <v>9</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>274</v>
+      </c>
+      <c r="B265" t="n">
+        <v>10</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>21</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="n">
+        <v>7</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>11</v>
+      </c>
+      <c r="L265" t="n">
+        <v>10</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>275</v>
+      </c>
+      <c r="B266" t="n">
+        <v>10</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="n">
+        <v>22</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="n">
+        <v>7</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>12</v>
+      </c>
+      <c r="L266" t="n">
+        <v>10</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,11 @@
           <t>team_name</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>team_logo_path</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -456,6 +461,11 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Univolei</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C:/Users/roberson.souza/Documents/MYCODES/univolei/imgs/team1_logo.jpg</t>
         </is>
       </c>
     </row>
@@ -468,6 +478,7 @@
           <t>Wonka - teste</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -478,6 +489,7 @@
           <t>teste</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -488,6 +500,7 @@
           <t>testeww</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -498,6 +511,7 @@
           <t>teste hj</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -508,6 +522,7 @@
           <t>Jogo camp 1</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -518,6 +533,18 @@
           <t>Adversário</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>teste novo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -769,7 +796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,15 +1239,29 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CLOSED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-10-01 23:50:10</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-10-01T23:50:10</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1320,6 +1361,36 @@
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>amistoso</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1332,7 +1403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1987,12 +2058,14 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2049,6 +2122,82 @@
         <v>0</v>
       </c>
       <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="n">
+        <v>16</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25</v>
+      </c>
+      <c r="E41" t="n">
+        <v>23</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2061,7 +2210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P266"/>
+  <dimension ref="A1:P396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18793,6 +18942,8392 @@
         </is>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>276</v>
+      </c>
+      <c r="B267" t="n">
+        <v>10</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>23</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="n">
+        <v>7</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>13</v>
+      </c>
+      <c r="L267" t="n">
+        <v>10</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>277</v>
+      </c>
+      <c r="B268" t="n">
+        <v>10</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>24</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="n">
+        <v>7</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>13</v>
+      </c>
+      <c r="L268" t="n">
+        <v>11</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>278</v>
+      </c>
+      <c r="B269" t="n">
+        <v>10</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>25</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="n">
+        <v>7</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>14</v>
+      </c>
+      <c r="L269" t="n">
+        <v>11</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>279</v>
+      </c>
+      <c r="B270" t="n">
+        <v>10</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>26</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="n">
+        <v>7</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>14</v>
+      </c>
+      <c r="L270" t="n">
+        <v>12</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>280</v>
+      </c>
+      <c r="B271" t="n">
+        <v>10</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>27</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="n">
+        <v>7</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>15</v>
+      </c>
+      <c r="L271" t="n">
+        <v>12</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>281</v>
+      </c>
+      <c r="B272" t="n">
+        <v>10</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>28</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="n">
+        <v>6</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>16</v>
+      </c>
+      <c r="L272" t="n">
+        <v>12</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>282</v>
+      </c>
+      <c r="B273" t="n">
+        <v>10</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>29</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>6</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>16</v>
+      </c>
+      <c r="L273" t="n">
+        <v>13</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>1 6 pi e</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>283</v>
+      </c>
+      <c r="B274" t="n">
+        <v>10</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>30</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>7</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>17</v>
+      </c>
+      <c r="L274" t="n">
+        <v>13</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>1 7 pi</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>284</v>
+      </c>
+      <c r="B275" t="n">
+        <v>10</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="n">
+        <v>31</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="n">
+        <v>7</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>17</v>
+      </c>
+      <c r="L275" t="n">
+        <v>14</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>1 7 pi e</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>285</v>
+      </c>
+      <c r="B276" t="n">
+        <v>10</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>32</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="n">
+        <v>7</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>17</v>
+      </c>
+      <c r="L276" t="n">
+        <v>15</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>1 7 pi e</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>286</v>
+      </c>
+      <c r="B277" t="n">
+        <v>10</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="n">
+        <v>33</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="n">
+        <v>6</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>18</v>
+      </c>
+      <c r="L277" t="n">
+        <v>15</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>287</v>
+      </c>
+      <c r="B278" t="n">
+        <v>10</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>34</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="n">
+        <v>7</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>19</v>
+      </c>
+      <c r="L278" t="n">
+        <v>15</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>288</v>
+      </c>
+      <c r="B279" t="n">
+        <v>10</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>35</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="n">
+        <v>7</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>19</v>
+      </c>
+      <c r="L279" t="n">
+        <v>16</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>289</v>
+      </c>
+      <c r="B280" t="n">
+        <v>10</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>36</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="n">
+        <v>7</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>20</v>
+      </c>
+      <c r="L280" t="n">
+        <v>16</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>290</v>
+      </c>
+      <c r="B281" t="n">
+        <v>10</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>37</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="n">
+        <v>7</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>20</v>
+      </c>
+      <c r="L281" t="n">
+        <v>17</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>291</v>
+      </c>
+      <c r="B282" t="n">
+        <v>10</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>38</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="n">
+        <v>8</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>21</v>
+      </c>
+      <c r="L282" t="n">
+        <v>17</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>292</v>
+      </c>
+      <c r="B283" t="n">
+        <v>10</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>39</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="n">
+        <v>8</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>21</v>
+      </c>
+      <c r="L283" t="n">
+        <v>18</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>1 8 re e</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>293</v>
+      </c>
+      <c r="B284" t="n">
+        <v>10</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>40</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="n">
+        <v>8</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>22</v>
+      </c>
+      <c r="L284" t="n">
+        <v>18</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>294</v>
+      </c>
+      <c r="B285" t="n">
+        <v>10</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>41</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="n">
+        <v>8</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>22</v>
+      </c>
+      <c r="L285" t="n">
+        <v>19</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>1 8 re e</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>295</v>
+      </c>
+      <c r="B286" t="n">
+        <v>10</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>42</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="n">
+        <v>8</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>23</v>
+      </c>
+      <c r="L286" t="n">
+        <v>19</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>296</v>
+      </c>
+      <c r="B287" t="n">
+        <v>10</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>43</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="n">
+        <v>8</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>23</v>
+      </c>
+      <c r="L287" t="n">
+        <v>20</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>1 8 re e</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>297</v>
+      </c>
+      <c r="B288" t="n">
+        <v>10</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>44</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="n">
+        <v>11</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>24</v>
+      </c>
+      <c r="L288" t="n">
+        <v>20</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>1 11 sa</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>298</v>
+      </c>
+      <c r="B289" t="n">
+        <v>10</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>45</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="n">
+        <v>11</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>24</v>
+      </c>
+      <c r="L289" t="n">
+        <v>21</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>1 11 sa e</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>331</v>
+      </c>
+      <c r="B290" t="n">
+        <v>10</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="n">
+        <v>46</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="n">
+        <v>8</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>25</v>
+      </c>
+      <c r="L290" t="n">
+        <v>21</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>332</v>
+      </c>
+      <c r="B291" t="n">
+        <v>10</v>
+      </c>
+      <c r="C291" t="n">
+        <v>3</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="n">
+        <v>6</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>333</v>
+      </c>
+      <c r="B292" t="n">
+        <v>10</v>
+      </c>
+      <c r="C292" t="n">
+        <v>3</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="n">
+        <v>5</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>2</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>334</v>
+      </c>
+      <c r="B293" t="n">
+        <v>10</v>
+      </c>
+      <c r="C293" t="n">
+        <v>3</v>
+      </c>
+      <c r="D293" t="n">
+        <v>3</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="n">
+        <v>5</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>2</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>1 5 seg e</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>335</v>
+      </c>
+      <c r="B294" t="n">
+        <v>10</v>
+      </c>
+      <c r="C294" t="n">
+        <v>3</v>
+      </c>
+      <c r="D294" t="n">
+        <v>4</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="n">
+        <v>6</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>3</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>336</v>
+      </c>
+      <c r="B295" t="n">
+        <v>10</v>
+      </c>
+      <c r="C295" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" t="n">
+        <v>5</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="n">
+        <v>6</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>3</v>
+      </c>
+      <c r="L295" t="n">
+        <v>2</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>337</v>
+      </c>
+      <c r="B296" t="n">
+        <v>10</v>
+      </c>
+      <c r="C296" t="n">
+        <v>3</v>
+      </c>
+      <c r="D296" t="n">
+        <v>6</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="n">
+        <v>6</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>3</v>
+      </c>
+      <c r="L296" t="n">
+        <v>3</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>338</v>
+      </c>
+      <c r="B297" t="n">
+        <v>10</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3</v>
+      </c>
+      <c r="D297" t="n">
+        <v>7</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="n">
+        <v>6</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>4</v>
+      </c>
+      <c r="L297" t="n">
+        <v>3</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>339</v>
+      </c>
+      <c r="B298" t="n">
+        <v>10</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3</v>
+      </c>
+      <c r="D298" t="n">
+        <v>8</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="n">
+        <v>7</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>5</v>
+      </c>
+      <c r="L298" t="n">
+        <v>3</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>1 7 pi</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>340</v>
+      </c>
+      <c r="B299" t="n">
+        <v>10</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3</v>
+      </c>
+      <c r="D299" t="n">
+        <v>9</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="n">
+        <v>7</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>6</v>
+      </c>
+      <c r="L299" t="n">
+        <v>3</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>1 7 seg</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>341</v>
+      </c>
+      <c r="B300" t="n">
+        <v>10</v>
+      </c>
+      <c r="C300" t="n">
+        <v>3</v>
+      </c>
+      <c r="D300" t="n">
+        <v>10</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="n">
+        <v>6</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>7</v>
+      </c>
+      <c r="L300" t="n">
+        <v>3</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>342</v>
+      </c>
+      <c r="B301" t="n">
+        <v>10</v>
+      </c>
+      <c r="C301" t="n">
+        <v>3</v>
+      </c>
+      <c r="D301" t="n">
+        <v>11</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="n">
+        <v>6</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>7</v>
+      </c>
+      <c r="L301" t="n">
+        <v>4</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>343</v>
+      </c>
+      <c r="B302" t="n">
+        <v>10</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3</v>
+      </c>
+      <c r="D302" t="n">
+        <v>12</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="n">
+        <v>6</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>8</v>
+      </c>
+      <c r="L302" t="n">
+        <v>4</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>344</v>
+      </c>
+      <c r="B303" t="n">
+        <v>10</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3</v>
+      </c>
+      <c r="D303" t="n">
+        <v>13</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="n">
+        <v>6</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>8</v>
+      </c>
+      <c r="L303" t="n">
+        <v>5</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>1 6 pi e</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>345</v>
+      </c>
+      <c r="B304" t="n">
+        <v>10</v>
+      </c>
+      <c r="C304" t="n">
+        <v>3</v>
+      </c>
+      <c r="D304" t="n">
+        <v>14</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="n">
+        <v>6</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>9</v>
+      </c>
+      <c r="L304" t="n">
+        <v>5</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>346</v>
+      </c>
+      <c r="B305" t="n">
+        <v>10</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" t="n">
+        <v>15</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="n">
+        <v>8</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>10</v>
+      </c>
+      <c r="L305" t="n">
+        <v>5</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>1 8 pi</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>347</v>
+      </c>
+      <c r="B306" t="n">
+        <v>10</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3</v>
+      </c>
+      <c r="D306" t="n">
+        <v>16</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>11</v>
+      </c>
+      <c r="L306" t="n">
+        <v>5</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>1  seg</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>348</v>
+      </c>
+      <c r="B307" t="n">
+        <v>10</v>
+      </c>
+      <c r="C307" t="n">
+        <v>3</v>
+      </c>
+      <c r="D307" t="n">
+        <v>17</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="n">
+        <v>6</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>12</v>
+      </c>
+      <c r="L307" t="n">
+        <v>5</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>349</v>
+      </c>
+      <c r="B308" t="n">
+        <v>10</v>
+      </c>
+      <c r="C308" t="n">
+        <v>3</v>
+      </c>
+      <c r="D308" t="n">
+        <v>18</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="n">
+        <v>6</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>12</v>
+      </c>
+      <c r="L308" t="n">
+        <v>6</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>350</v>
+      </c>
+      <c r="B309" t="n">
+        <v>10</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3</v>
+      </c>
+      <c r="D309" t="n">
+        <v>19</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="n">
+        <v>6</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>13</v>
+      </c>
+      <c r="L309" t="n">
+        <v>6</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>351</v>
+      </c>
+      <c r="B310" t="n">
+        <v>10</v>
+      </c>
+      <c r="C310" t="n">
+        <v>3</v>
+      </c>
+      <c r="D310" t="n">
+        <v>20</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="n">
+        <v>6</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>13</v>
+      </c>
+      <c r="L310" t="n">
+        <v>7</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>352</v>
+      </c>
+      <c r="B311" t="n">
+        <v>10</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3</v>
+      </c>
+      <c r="D311" t="n">
+        <v>21</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="n">
+        <v>6</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>14</v>
+      </c>
+      <c r="L311" t="n">
+        <v>7</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>353</v>
+      </c>
+      <c r="B312" t="n">
+        <v>10</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3</v>
+      </c>
+      <c r="D312" t="n">
+        <v>22</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="n">
+        <v>6</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>14</v>
+      </c>
+      <c r="L312" t="n">
+        <v>8</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>354</v>
+      </c>
+      <c r="B313" t="n">
+        <v>10</v>
+      </c>
+      <c r="C313" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" t="n">
+        <v>23</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="n">
+        <v>6</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>15</v>
+      </c>
+      <c r="L313" t="n">
+        <v>8</v>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>355</v>
+      </c>
+      <c r="B314" t="n">
+        <v>10</v>
+      </c>
+      <c r="C314" t="n">
+        <v>3</v>
+      </c>
+      <c r="D314" t="n">
+        <v>24</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="n">
+        <v>6</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>15</v>
+      </c>
+      <c r="L314" t="n">
+        <v>9</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>356</v>
+      </c>
+      <c r="B315" t="n">
+        <v>10</v>
+      </c>
+      <c r="C315" t="n">
+        <v>3</v>
+      </c>
+      <c r="D315" t="n">
+        <v>25</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="n">
+        <v>6</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>16</v>
+      </c>
+      <c r="L315" t="n">
+        <v>9</v>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>357</v>
+      </c>
+      <c r="B316" t="n">
+        <v>10</v>
+      </c>
+      <c r="C316" t="n">
+        <v>3</v>
+      </c>
+      <c r="D316" t="n">
+        <v>26</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="n">
+        <v>6</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>16</v>
+      </c>
+      <c r="L316" t="n">
+        <v>10</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>358</v>
+      </c>
+      <c r="B317" t="n">
+        <v>10</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3</v>
+      </c>
+      <c r="D317" t="n">
+        <v>27</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="n">
+        <v>6</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>17</v>
+      </c>
+      <c r="L317" t="n">
+        <v>10</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>359</v>
+      </c>
+      <c r="B318" t="n">
+        <v>10</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3</v>
+      </c>
+      <c r="D318" t="n">
+        <v>28</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="n">
+        <v>6</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>17</v>
+      </c>
+      <c r="L318" t="n">
+        <v>11</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>360</v>
+      </c>
+      <c r="B319" t="n">
+        <v>10</v>
+      </c>
+      <c r="C319" t="n">
+        <v>3</v>
+      </c>
+      <c r="D319" t="n">
+        <v>29</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="n">
+        <v>6</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>18</v>
+      </c>
+      <c r="L319" t="n">
+        <v>11</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>361</v>
+      </c>
+      <c r="B320" t="n">
+        <v>10</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3</v>
+      </c>
+      <c r="D320" t="n">
+        <v>30</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="n">
+        <v>6</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>18</v>
+      </c>
+      <c r="L320" t="n">
+        <v>12</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>362</v>
+      </c>
+      <c r="B321" t="n">
+        <v>10</v>
+      </c>
+      <c r="C321" t="n">
+        <v>3</v>
+      </c>
+      <c r="D321" t="n">
+        <v>31</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="n">
+        <v>6</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>19</v>
+      </c>
+      <c r="L321" t="n">
+        <v>12</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>363</v>
+      </c>
+      <c r="B322" t="n">
+        <v>10</v>
+      </c>
+      <c r="C322" t="n">
+        <v>3</v>
+      </c>
+      <c r="D322" t="n">
+        <v>32</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="n">
+        <v>6</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>20</v>
+      </c>
+      <c r="L322" t="n">
+        <v>12</v>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>364</v>
+      </c>
+      <c r="B323" t="n">
+        <v>10</v>
+      </c>
+      <c r="C323" t="n">
+        <v>3</v>
+      </c>
+      <c r="D323" t="n">
+        <v>33</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="n">
+        <v>6</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>20</v>
+      </c>
+      <c r="L323" t="n">
+        <v>13</v>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>365</v>
+      </c>
+      <c r="B324" t="n">
+        <v>10</v>
+      </c>
+      <c r="C324" t="n">
+        <v>3</v>
+      </c>
+      <c r="D324" t="n">
+        <v>34</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="n">
+        <v>6</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>21</v>
+      </c>
+      <c r="L324" t="n">
+        <v>13</v>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>366</v>
+      </c>
+      <c r="B325" t="n">
+        <v>10</v>
+      </c>
+      <c r="C325" t="n">
+        <v>3</v>
+      </c>
+      <c r="D325" t="n">
+        <v>35</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="n">
+        <v>6</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>21</v>
+      </c>
+      <c r="L325" t="n">
+        <v>14</v>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>367</v>
+      </c>
+      <c r="B326" t="n">
+        <v>10</v>
+      </c>
+      <c r="C326" t="n">
+        <v>3</v>
+      </c>
+      <c r="D326" t="n">
+        <v>36</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="n">
+        <v>6</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>22</v>
+      </c>
+      <c r="L326" t="n">
+        <v>14</v>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>368</v>
+      </c>
+      <c r="B327" t="n">
+        <v>10</v>
+      </c>
+      <c r="C327" t="n">
+        <v>3</v>
+      </c>
+      <c r="D327" t="n">
+        <v>37</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="n">
+        <v>6</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>22</v>
+      </c>
+      <c r="L327" t="n">
+        <v>15</v>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>369</v>
+      </c>
+      <c r="B328" t="n">
+        <v>10</v>
+      </c>
+      <c r="C328" t="n">
+        <v>3</v>
+      </c>
+      <c r="D328" t="n">
+        <v>38</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="n">
+        <v>5</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>23</v>
+      </c>
+      <c r="L328" t="n">
+        <v>15</v>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>370</v>
+      </c>
+      <c r="B329" t="n">
+        <v>10</v>
+      </c>
+      <c r="C329" t="n">
+        <v>3</v>
+      </c>
+      <c r="D329" t="n">
+        <v>39</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="n">
+        <v>5</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>24</v>
+      </c>
+      <c r="L329" t="n">
+        <v>15</v>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>1 5 seg</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>371</v>
+      </c>
+      <c r="B330" t="n">
+        <v>10</v>
+      </c>
+      <c r="C330" t="n">
+        <v>3</v>
+      </c>
+      <c r="D330" t="n">
+        <v>40</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>5</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>24</v>
+      </c>
+      <c r="L330" t="n">
+        <v>16</v>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>0 5 b</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>372</v>
+      </c>
+      <c r="B331" t="n">
+        <v>10</v>
+      </c>
+      <c r="C331" t="n">
+        <v>3</v>
+      </c>
+      <c r="D331" t="n">
+        <v>41</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>5</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>25</v>
+      </c>
+      <c r="L331" t="n">
+        <v>16</v>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>0 5 b e</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>373</v>
+      </c>
+      <c r="B332" t="n">
+        <v>10</v>
+      </c>
+      <c r="C332" t="n">
+        <v>4</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>5</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>0 5 b</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>374</v>
+      </c>
+      <c r="B333" t="n">
+        <v>10</v>
+      </c>
+      <c r="C333" t="n">
+        <v>4</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>5</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>0 5 b e</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>375</v>
+      </c>
+      <c r="B334" t="n">
+        <v>10</v>
+      </c>
+      <c r="C334" t="n">
+        <v>4</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>5</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="n">
+        <v>2</v>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>0 5 sa</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>376</v>
+      </c>
+      <c r="B335" t="n">
+        <v>10</v>
+      </c>
+      <c r="C335" t="n">
+        <v>4</v>
+      </c>
+      <c r="D335" t="n">
+        <v>4</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="n">
+        <v>11</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K335" t="n">
+        <v>2</v>
+      </c>
+      <c r="L335" t="n">
+        <v>2</v>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>1 11 sa</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>377</v>
+      </c>
+      <c r="B336" t="n">
+        <v>10</v>
+      </c>
+      <c r="C336" t="n">
+        <v>4</v>
+      </c>
+      <c r="D336" t="n">
+        <v>5</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="n">
+        <v>14</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K336" t="n">
+        <v>3</v>
+      </c>
+      <c r="L336" t="n">
+        <v>2</v>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>1 14 sa</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>378</v>
+      </c>
+      <c r="B337" t="n">
+        <v>10</v>
+      </c>
+      <c r="C337" t="n">
+        <v>4</v>
+      </c>
+      <c r="D337" t="n">
+        <v>6</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="n">
+        <v>14</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K337" t="n">
+        <v>3</v>
+      </c>
+      <c r="L337" t="n">
+        <v>3</v>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>1 14 sa e</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>379</v>
+      </c>
+      <c r="B338" t="n">
+        <v>10</v>
+      </c>
+      <c r="C338" t="n">
+        <v>4</v>
+      </c>
+      <c r="D338" t="n">
+        <v>7</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="n">
+        <v>11</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K338" t="n">
+        <v>4</v>
+      </c>
+      <c r="L338" t="n">
+        <v>3</v>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>1 11 sa</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>380</v>
+      </c>
+      <c r="B339" t="n">
+        <v>10</v>
+      </c>
+      <c r="C339" t="n">
+        <v>4</v>
+      </c>
+      <c r="D339" t="n">
+        <v>8</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="n">
+        <v>11</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K339" t="n">
+        <v>4</v>
+      </c>
+      <c r="L339" t="n">
+        <v>4</v>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>1 11 b e</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>381</v>
+      </c>
+      <c r="B340" t="n">
+        <v>10</v>
+      </c>
+      <c r="C340" t="n">
+        <v>4</v>
+      </c>
+      <c r="D340" t="n">
+        <v>9</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="n">
+        <v>7</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K340" t="n">
+        <v>5</v>
+      </c>
+      <c r="L340" t="n">
+        <v>4</v>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>382</v>
+      </c>
+      <c r="B341" t="n">
+        <v>10</v>
+      </c>
+      <c r="C341" t="n">
+        <v>4</v>
+      </c>
+      <c r="D341" t="n">
+        <v>10</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="n">
+        <v>7</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K341" t="n">
+        <v>5</v>
+      </c>
+      <c r="L341" t="n">
+        <v>5</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>383</v>
+      </c>
+      <c r="B342" t="n">
+        <v>10</v>
+      </c>
+      <c r="C342" t="n">
+        <v>4</v>
+      </c>
+      <c r="D342" t="n">
+        <v>11</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="n">
+        <v>7</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K342" t="n">
+        <v>6</v>
+      </c>
+      <c r="L342" t="n">
+        <v>5</v>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>384</v>
+      </c>
+      <c r="B343" t="n">
+        <v>10</v>
+      </c>
+      <c r="C343" t="n">
+        <v>4</v>
+      </c>
+      <c r="D343" t="n">
+        <v>12</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="n">
+        <v>7</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K343" t="n">
+        <v>6</v>
+      </c>
+      <c r="L343" t="n">
+        <v>6</v>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>385</v>
+      </c>
+      <c r="B344" t="n">
+        <v>10</v>
+      </c>
+      <c r="C344" t="n">
+        <v>4</v>
+      </c>
+      <c r="D344" t="n">
+        <v>13</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="n">
+        <v>7</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K344" t="n">
+        <v>7</v>
+      </c>
+      <c r="L344" t="n">
+        <v>6</v>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>386</v>
+      </c>
+      <c r="B345" t="n">
+        <v>10</v>
+      </c>
+      <c r="C345" t="n">
+        <v>4</v>
+      </c>
+      <c r="D345" t="n">
+        <v>14</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="n">
+        <v>7</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K345" t="n">
+        <v>7</v>
+      </c>
+      <c r="L345" t="n">
+        <v>7</v>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>387</v>
+      </c>
+      <c r="B346" t="n">
+        <v>10</v>
+      </c>
+      <c r="C346" t="n">
+        <v>4</v>
+      </c>
+      <c r="D346" t="n">
+        <v>15</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="n">
+        <v>7</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K346" t="n">
+        <v>8</v>
+      </c>
+      <c r="L346" t="n">
+        <v>7</v>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>388</v>
+      </c>
+      <c r="B347" t="n">
+        <v>10</v>
+      </c>
+      <c r="C347" t="n">
+        <v>4</v>
+      </c>
+      <c r="D347" t="n">
+        <v>16</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="n">
+        <v>6</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K347" t="n">
+        <v>9</v>
+      </c>
+      <c r="L347" t="n">
+        <v>7</v>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>389</v>
+      </c>
+      <c r="B348" t="n">
+        <v>10</v>
+      </c>
+      <c r="C348" t="n">
+        <v>4</v>
+      </c>
+      <c r="D348" t="n">
+        <v>17</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="n">
+        <v>6</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K348" t="n">
+        <v>9</v>
+      </c>
+      <c r="L348" t="n">
+        <v>8</v>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>1 6 pi e</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>390</v>
+      </c>
+      <c r="B349" t="n">
+        <v>10</v>
+      </c>
+      <c r="C349" t="n">
+        <v>4</v>
+      </c>
+      <c r="D349" t="n">
+        <v>18</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="n">
+        <v>6</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K349" t="n">
+        <v>10</v>
+      </c>
+      <c r="L349" t="n">
+        <v>8</v>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>391</v>
+      </c>
+      <c r="B350" t="n">
+        <v>10</v>
+      </c>
+      <c r="C350" t="n">
+        <v>4</v>
+      </c>
+      <c r="D350" t="n">
+        <v>19</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="n">
+        <v>6</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K350" t="n">
+        <v>10</v>
+      </c>
+      <c r="L350" t="n">
+        <v>9</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>1 6 pi e</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>392</v>
+      </c>
+      <c r="B351" t="n">
+        <v>10</v>
+      </c>
+      <c r="C351" t="n">
+        <v>4</v>
+      </c>
+      <c r="D351" t="n">
+        <v>20</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="n">
+        <v>6</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>PIPE</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K351" t="n">
+        <v>11</v>
+      </c>
+      <c r="L351" t="n">
+        <v>9</v>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>1 6 pi</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>393</v>
+      </c>
+      <c r="B352" t="n">
+        <v>10</v>
+      </c>
+      <c r="C352" t="n">
+        <v>4</v>
+      </c>
+      <c r="D352" t="n">
+        <v>21</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="n">
+        <v>7</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K352" t="n">
+        <v>12</v>
+      </c>
+      <c r="L352" t="n">
+        <v>9</v>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>394</v>
+      </c>
+      <c r="B353" t="n">
+        <v>10</v>
+      </c>
+      <c r="C353" t="n">
+        <v>4</v>
+      </c>
+      <c r="D353" t="n">
+        <v>22</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="n">
+        <v>7</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K353" t="n">
+        <v>12</v>
+      </c>
+      <c r="L353" t="n">
+        <v>10</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>395</v>
+      </c>
+      <c r="B354" t="n">
+        <v>10</v>
+      </c>
+      <c r="C354" t="n">
+        <v>4</v>
+      </c>
+      <c r="D354" t="n">
+        <v>23</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="n">
+        <v>7</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K354" t="n">
+        <v>13</v>
+      </c>
+      <c r="L354" t="n">
+        <v>10</v>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>396</v>
+      </c>
+      <c r="B355" t="n">
+        <v>10</v>
+      </c>
+      <c r="C355" t="n">
+        <v>4</v>
+      </c>
+      <c r="D355" t="n">
+        <v>24</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="n">
+        <v>7</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K355" t="n">
+        <v>13</v>
+      </c>
+      <c r="L355" t="n">
+        <v>11</v>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>1 7 re e</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>397</v>
+      </c>
+      <c r="B356" t="n">
+        <v>10</v>
+      </c>
+      <c r="C356" t="n">
+        <v>4</v>
+      </c>
+      <c r="D356" t="n">
+        <v>25</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="n">
+        <v>7</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K356" t="n">
+        <v>14</v>
+      </c>
+      <c r="L356" t="n">
+        <v>11</v>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>1 7 re</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>398</v>
+      </c>
+      <c r="B357" t="n">
+        <v>10</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4</v>
+      </c>
+      <c r="D357" t="n">
+        <v>26</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="n">
+        <v>8</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K357" t="n">
+        <v>15</v>
+      </c>
+      <c r="L357" t="n">
+        <v>11</v>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>399</v>
+      </c>
+      <c r="B358" t="n">
+        <v>10</v>
+      </c>
+      <c r="C358" t="n">
+        <v>4</v>
+      </c>
+      <c r="D358" t="n">
+        <v>27</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="n">
+        <v>8</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K358" t="n">
+        <v>15</v>
+      </c>
+      <c r="L358" t="n">
+        <v>12</v>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>1 8 re e</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>400</v>
+      </c>
+      <c r="B359" t="n">
+        <v>10</v>
+      </c>
+      <c r="C359" t="n">
+        <v>4</v>
+      </c>
+      <c r="D359" t="n">
+        <v>28</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="n">
+        <v>8</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K359" t="n">
+        <v>16</v>
+      </c>
+      <c r="L359" t="n">
+        <v>12</v>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>401</v>
+      </c>
+      <c r="B360" t="n">
+        <v>10</v>
+      </c>
+      <c r="C360" t="n">
+        <v>4</v>
+      </c>
+      <c r="D360" t="n">
+        <v>29</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="n">
+        <v>8</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K360" t="n">
+        <v>16</v>
+      </c>
+      <c r="L360" t="n">
+        <v>13</v>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>1 8 re e</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O360" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P360" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>402</v>
+      </c>
+      <c r="B361" t="n">
+        <v>10</v>
+      </c>
+      <c r="C361" t="n">
+        <v>4</v>
+      </c>
+      <c r="D361" t="n">
+        <v>30</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="n">
+        <v>8</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>RECEPÇÃO</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K361" t="n">
+        <v>17</v>
+      </c>
+      <c r="L361" t="n">
+        <v>13</v>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>1 8 re</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>403</v>
+      </c>
+      <c r="B362" t="n">
+        <v>10</v>
+      </c>
+      <c r="C362" t="n">
+        <v>4</v>
+      </c>
+      <c r="D362" t="n">
+        <v>31</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="n">
+        <v>6</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K362" t="n">
+        <v>18</v>
+      </c>
+      <c r="L362" t="n">
+        <v>13</v>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>404</v>
+      </c>
+      <c r="B363" t="n">
+        <v>10</v>
+      </c>
+      <c r="C363" t="n">
+        <v>4</v>
+      </c>
+      <c r="D363" t="n">
+        <v>32</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="n">
+        <v>6</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K363" t="n">
+        <v>18</v>
+      </c>
+      <c r="L363" t="n">
+        <v>14</v>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P363" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>405</v>
+      </c>
+      <c r="B364" t="n">
+        <v>10</v>
+      </c>
+      <c r="C364" t="n">
+        <v>4</v>
+      </c>
+      <c r="D364" t="n">
+        <v>33</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G364" t="n">
+        <v>6</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K364" t="n">
+        <v>18</v>
+      </c>
+      <c r="L364" t="n">
+        <v>15</v>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>0 6 sa</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P364" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>406</v>
+      </c>
+      <c r="B365" t="n">
+        <v>10</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4</v>
+      </c>
+      <c r="D365" t="n">
+        <v>34</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>6</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K365" t="n">
+        <v>19</v>
+      </c>
+      <c r="L365" t="n">
+        <v>15</v>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>0 6 sa e</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O365" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P365" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>407</v>
+      </c>
+      <c r="B366" t="n">
+        <v>10</v>
+      </c>
+      <c r="C366" t="n">
+        <v>4</v>
+      </c>
+      <c r="D366" t="n">
+        <v>35</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>6</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K366" t="n">
+        <v>19</v>
+      </c>
+      <c r="L366" t="n">
+        <v>16</v>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>0 6 sa</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P366" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>408</v>
+      </c>
+      <c r="B367" t="n">
+        <v>10</v>
+      </c>
+      <c r="C367" t="n">
+        <v>4</v>
+      </c>
+      <c r="D367" t="n">
+        <v>36</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>6</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K367" t="n">
+        <v>20</v>
+      </c>
+      <c r="L367" t="n">
+        <v>16</v>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>0 6 sa e</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>409</v>
+      </c>
+      <c r="B368" t="n">
+        <v>10</v>
+      </c>
+      <c r="C368" t="n">
+        <v>4</v>
+      </c>
+      <c r="D368" t="n">
+        <v>37</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>6</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K368" t="n">
+        <v>20</v>
+      </c>
+      <c r="L368" t="n">
+        <v>17</v>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>0 6 sa</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>410</v>
+      </c>
+      <c r="B369" t="n">
+        <v>10</v>
+      </c>
+      <c r="C369" t="n">
+        <v>4</v>
+      </c>
+      <c r="D369" t="n">
+        <v>38</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>6</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K369" t="n">
+        <v>20</v>
+      </c>
+      <c r="L369" t="n">
+        <v>18</v>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>0 6 sa</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>411</v>
+      </c>
+      <c r="B370" t="n">
+        <v>10</v>
+      </c>
+      <c r="C370" t="n">
+        <v>4</v>
+      </c>
+      <c r="D370" t="n">
+        <v>39</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>6</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K370" t="n">
+        <v>20</v>
+      </c>
+      <c r="L370" t="n">
+        <v>19</v>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>0 6 sa</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>412</v>
+      </c>
+      <c r="B371" t="n">
+        <v>10</v>
+      </c>
+      <c r="C371" t="n">
+        <v>4</v>
+      </c>
+      <c r="D371" t="n">
+        <v>40</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G371" t="n">
+        <v>6</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>SAQUE</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K371" t="n">
+        <v>20</v>
+      </c>
+      <c r="L371" t="n">
+        <v>20</v>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>0 6 sa</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>413</v>
+      </c>
+      <c r="B372" t="n">
+        <v>10</v>
+      </c>
+      <c r="C372" t="n">
+        <v>4</v>
+      </c>
+      <c r="D372" t="n">
+        <v>41</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="n">
+        <v>6</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K372" t="n">
+        <v>21</v>
+      </c>
+      <c r="L372" t="n">
+        <v>20</v>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>414</v>
+      </c>
+      <c r="B373" t="n">
+        <v>10</v>
+      </c>
+      <c r="C373" t="n">
+        <v>4</v>
+      </c>
+      <c r="D373" t="n">
+        <v>42</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G373" t="n">
+        <v>6</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K373" t="n">
+        <v>21</v>
+      </c>
+      <c r="L373" t="n">
+        <v>21</v>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>0 6 b</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>415</v>
+      </c>
+      <c r="B374" t="n">
+        <v>10</v>
+      </c>
+      <c r="C374" t="n">
+        <v>4</v>
+      </c>
+      <c r="D374" t="n">
+        <v>43</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>6</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K374" t="n">
+        <v>22</v>
+      </c>
+      <c r="L374" t="n">
+        <v>21</v>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>0 6 b e</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O374" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P374" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>416</v>
+      </c>
+      <c r="B375" t="n">
+        <v>10</v>
+      </c>
+      <c r="C375" t="n">
+        <v>4</v>
+      </c>
+      <c r="D375" t="n">
+        <v>44</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G375" t="n">
+        <v>6</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K375" t="n">
+        <v>22</v>
+      </c>
+      <c r="L375" t="n">
+        <v>22</v>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>0 6 b</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>417</v>
+      </c>
+      <c r="B376" t="n">
+        <v>10</v>
+      </c>
+      <c r="C376" t="n">
+        <v>4</v>
+      </c>
+      <c r="D376" t="n">
+        <v>45</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>ADVERSÁRIO</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>6</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>BLOQUEIO</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K376" t="n">
+        <v>23</v>
+      </c>
+      <c r="L376" t="n">
+        <v>22</v>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>0 6 b e</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>418</v>
+      </c>
+      <c r="B377" t="n">
+        <v>10</v>
+      </c>
+      <c r="C377" t="n">
+        <v>4</v>
+      </c>
+      <c r="D377" t="n">
+        <v>46</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="n">
+        <v>5</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K377" t="n">
+        <v>24</v>
+      </c>
+      <c r="L377" t="n">
+        <v>22</v>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>419</v>
+      </c>
+      <c r="B378" t="n">
+        <v>10</v>
+      </c>
+      <c r="C378" t="n">
+        <v>4</v>
+      </c>
+      <c r="D378" t="n">
+        <v>47</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="n">
+        <v>5</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K378" t="n">
+        <v>24</v>
+      </c>
+      <c r="L378" t="n">
+        <v>23</v>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>1 5 lob e</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>420</v>
+      </c>
+      <c r="B379" t="n">
+        <v>10</v>
+      </c>
+      <c r="C379" t="n">
+        <v>4</v>
+      </c>
+      <c r="D379" t="n">
+        <v>48</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="n">
+        <v>5</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K379" t="n">
+        <v>25</v>
+      </c>
+      <c r="L379" t="n">
+        <v>23</v>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>421</v>
+      </c>
+      <c r="B380" t="n">
+        <v>13</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="n">
+        <v>4</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K380" t="n">
+        <v>1</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>422</v>
+      </c>
+      <c r="B381" t="n">
+        <v>13</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="n">
+        <v>4</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K381" t="n">
+        <v>1</v>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>1 4 lob e</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>423</v>
+      </c>
+      <c r="B382" t="n">
+        <v>13</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>3</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="n">
+        <v>5</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K382" t="n">
+        <v>2</v>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>1 5 lob</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P382" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>424</v>
+      </c>
+      <c r="B383" t="n">
+        <v>13</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+      <c r="D383" t="n">
+        <v>4</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="n">
+        <v>5</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K383" t="n">
+        <v>2</v>
+      </c>
+      <c r="L383" t="n">
+        <v>2</v>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>1 5 lob e</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P383" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>425</v>
+      </c>
+      <c r="B384" t="n">
+        <v>13</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>5</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="n">
+        <v>4</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K384" t="n">
+        <v>3</v>
+      </c>
+      <c r="L384" t="n">
+        <v>2</v>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>426</v>
+      </c>
+      <c r="B385" t="n">
+        <v>13</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>6</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="n">
+        <v>4</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K385" t="n">
+        <v>3</v>
+      </c>
+      <c r="L385" t="n">
+        <v>3</v>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>1 4 lob e</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P385" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>427</v>
+      </c>
+      <c r="B386" t="n">
+        <v>13</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>7</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="n">
+        <v>4</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>LOB</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K386" t="n">
+        <v>4</v>
+      </c>
+      <c r="L386" t="n">
+        <v>3</v>
+      </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>1 4 lob</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P386" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>428</v>
+      </c>
+      <c r="B387" t="n">
+        <v>13</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="n">
+        <v>8</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="n">
+        <v>6</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K387" t="n">
+        <v>5</v>
+      </c>
+      <c r="L387" t="n">
+        <v>3</v>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O387" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P387" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>429</v>
+      </c>
+      <c r="B388" t="n">
+        <v>13</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" t="n">
+        <v>9</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="n">
+        <v>6</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K388" t="n">
+        <v>5</v>
+      </c>
+      <c r="L388" t="n">
+        <v>4</v>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P388" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>430</v>
+      </c>
+      <c r="B389" t="n">
+        <v>13</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+      <c r="D389" t="n">
+        <v>10</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="n">
+        <v>6</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K389" t="n">
+        <v>6</v>
+      </c>
+      <c r="L389" t="n">
+        <v>4</v>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P389" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>431</v>
+      </c>
+      <c r="B390" t="n">
+        <v>13</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+      <c r="D390" t="n">
+        <v>11</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="n">
+        <v>6</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K390" t="n">
+        <v>6</v>
+      </c>
+      <c r="L390" t="n">
+        <v>5</v>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P390" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>432</v>
+      </c>
+      <c r="B391" t="n">
+        <v>13</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+      <c r="D391" t="n">
+        <v>12</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="n">
+        <v>6</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K391" t="n">
+        <v>7</v>
+      </c>
+      <c r="L391" t="n">
+        <v>5</v>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P391" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>433</v>
+      </c>
+      <c r="B392" t="n">
+        <v>13</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+      <c r="D392" t="n">
+        <v>13</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="n">
+        <v>6</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K392" t="n">
+        <v>8</v>
+      </c>
+      <c r="L392" t="n">
+        <v>5</v>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P392" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>434</v>
+      </c>
+      <c r="B393" t="n">
+        <v>13</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+      <c r="D393" t="n">
+        <v>14</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="n">
+        <v>6</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K393" t="n">
+        <v>8</v>
+      </c>
+      <c r="L393" t="n">
+        <v>6</v>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P393" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>435</v>
+      </c>
+      <c r="B394" t="n">
+        <v>13</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1</v>
+      </c>
+      <c r="D394" t="n">
+        <v>15</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="n">
+        <v>6</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K394" t="n">
+        <v>9</v>
+      </c>
+      <c r="L394" t="n">
+        <v>6</v>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P394" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>436</v>
+      </c>
+      <c r="B395" t="n">
+        <v>13</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>16</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="n">
+        <v>6</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>ERRO</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="K395" t="n">
+        <v>9</v>
+      </c>
+      <c r="L395" t="n">
+        <v>7</v>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>1 6 seg e</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>437</v>
+      </c>
+      <c r="B396" t="n">
+        <v>13</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>17</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="n">
+        <v>6</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>SEGUNDA</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>PONTO</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="K396" t="n">
+        <v>10</v>
+      </c>
+      <c r="L396" t="n">
+        <v>7</v>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>1 6 seg</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="O396" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+      <c r="P396" t="inlineStr">
+        <is>
+          <t>FRENTE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/volei_base_dados.xlsx
+++ b/volei_base_dados.xlsx
@@ -1,40 +1,195 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\MY_ARQS\Casa\CONTAS_ATUAIS\univolei\code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4485"/>
   </bookViews>
   <sheets>
-    <sheet name="amistosos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sets" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="rallies" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="equipes" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equipes" sheetId="1" r:id="rId1"/>
+    <sheet name="jogadoras" sheetId="2" r:id="rId2"/>
+    <sheet name="amistosos" sheetId="3" r:id="rId3"/>
+    <sheet name="sets" sheetId="4" r:id="rId4"/>
+    <sheet name="rallies" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+  <si>
+    <t>team_id</t>
+  </si>
+  <si>
+    <t>team_name</t>
+  </si>
+  <si>
+    <t>Univolei</t>
+  </si>
+  <si>
+    <t>player_number</t>
+  </si>
+  <si>
+    <t>player_name</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>ponteira</t>
+  </si>
+  <si>
+    <t>Michelli</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>Tinti</t>
+  </si>
+  <si>
+    <t>levantadora</t>
+  </si>
+  <si>
+    <t>Andreza</t>
+  </si>
+  <si>
+    <t>Andressa</t>
+  </si>
+  <si>
+    <t>líbero</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Celia</t>
+  </si>
+  <si>
+    <t>Daya</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>oposta</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Maristela</t>
+  </si>
+  <si>
+    <t>match_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>home_team_id</t>
+  </si>
+  <si>
+    <t>away_team_id</t>
+  </si>
+  <si>
+    <t>home_sets</t>
+  </si>
+  <si>
+    <t>away_sets</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>finished_at</t>
+  </si>
+  <si>
+    <t>set_id</t>
+  </si>
+  <si>
+    <t>set_number</t>
+  </si>
+  <si>
+    <t>home_points</t>
+  </si>
+  <si>
+    <t>away_points</t>
+  </si>
+  <si>
+    <t>winner_team_id</t>
+  </si>
+  <si>
+    <t>rally_id</t>
+  </si>
+  <si>
+    <t>rally_no</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>who_scored</t>
+  </si>
+  <si>
+    <t>score_home</t>
+  </si>
+  <si>
+    <t>score_away</t>
+  </si>
+  <si>
+    <t>raw_text</t>
+  </si>
+  <si>
+    <t>position_zone</t>
+  </si>
+  <si>
+    <t>pos_fb</t>
+  </si>
+  <si>
+    <t>frente_fundo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,93 +204,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,63 +528,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>match_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>away_team_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>home_sets</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>away_sets</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-09-26</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -488,67 +559,179 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>match_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>set_number</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>home_points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>away_points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>winner_team_id</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>set_id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -557,54 +740,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>rally_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>match_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>set_number</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rally_no</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>who_scored</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>score_home</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>score_away</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -613,39 +784,98 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>team_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>team_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
